--- a/我的创作/人际关系/男女关系.xlsx
+++ b/我的创作/人际关系/男女关系.xlsx
@@ -994,7 +994,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
